--- a/Documentos/Casos de Prueba/Casos de prueba.xlsx
+++ b/Documentos/Casos de Prueba/Casos de prueba.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\ProyectoGPS-master\Documentos\Casos de Prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7875" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
   <si>
     <t>No.</t>
   </si>
@@ -69,12 +69,6 @@
     <t>Inicia la pantalla del Login</t>
   </si>
   <si>
-    <t>Ingresa usuario y contraseña</t>
-  </si>
-  <si>
-    <t>iniciar sesion dependiendo del tipo de usuario</t>
-  </si>
-  <si>
     <t>Inicia la sesion con los nombres del usuario y dependiendo de los datos ingresa a diferentes ventanas</t>
   </si>
   <si>
@@ -184,12 +178,30 @@
   </si>
   <si>
     <t>ingresa a las calificaciones</t>
+  </si>
+  <si>
+    <t>Ingresa usuario y contraseña validos para un alumno</t>
+  </si>
+  <si>
+    <t>iniciar sesion dependiendo del tipo de usuario redirigiendo a la vista de calificaciones del alumno</t>
+  </si>
+  <si>
+    <t>Ingresa usuario y contraseña validos para un maestro</t>
+  </si>
+  <si>
+    <t>Ingresa usuario y contraseña validos para un administrador</t>
+  </si>
+  <si>
+    <t>iniciar sesion dependiendo del tipo de usuario redirigiendo a la vista de calificaciones del maestro</t>
+  </si>
+  <si>
+    <t>iniciar sesion dependiendo del tipo de usuario redirigiendo a la vista de calificaciones del administrador</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -260,17 +272,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="B2:K31"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,277 +613,293 @@
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>1</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10" t="s">
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="10">
+      <c r="B12" s="8">
         <v>2</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+      <c r="I12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="10"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="B17" s="8">
+        <v>3</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="B22" s="8">
+        <v>4</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
@@ -881,9 +909,9 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
@@ -893,9 +921,9 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
@@ -905,9 +933,9 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
@@ -917,9 +945,9 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
@@ -929,19 +957,20 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="C7:E11"/>
-    <mergeCell ref="F7:H11"/>
-    <mergeCell ref="I7:K11"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:E26"/>
+    <mergeCell ref="F22:H26"/>
+    <mergeCell ref="I22:K26"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:E31"/>
+    <mergeCell ref="F27:H31"/>
+    <mergeCell ref="I27:K31"/>
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="C17:E21"/>
     <mergeCell ref="F17:H21"/>
@@ -952,14 +981,13 @@
     <mergeCell ref="C12:E16"/>
     <mergeCell ref="F12:H16"/>
     <mergeCell ref="I12:K16"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:E26"/>
-    <mergeCell ref="F22:H26"/>
-    <mergeCell ref="I22:K26"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:E31"/>
-    <mergeCell ref="F27:H31"/>
-    <mergeCell ref="I27:K31"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="C7:E11"/>
+    <mergeCell ref="F7:H11"/>
+    <mergeCell ref="I7:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -970,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,7 +1023,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -1005,7 +1033,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1014,225 +1042,225 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>1</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9" t="s">
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="8"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="8">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="10">
-        <v>2</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9" t="s">
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="8"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="8"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="10">
+        <v>3</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9" t="s">
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="10"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="9">
-        <v>3</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
@@ -1242,9 +1270,9 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
@@ -1254,9 +1282,9 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
@@ -1266,9 +1294,9 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
@@ -1278,9 +1306,9 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
@@ -1290,9 +1318,9 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
@@ -1302,9 +1330,9 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
@@ -1314,9 +1342,9 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
@@ -1326,9 +1354,9 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
@@ -1338,9 +1366,9 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
@@ -1350,12 +1378,29 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:E11"/>
+    <mergeCell ref="F7:H11"/>
+    <mergeCell ref="I7:K11"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:E16"/>
+    <mergeCell ref="F12:H16"/>
+    <mergeCell ref="I12:K16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:E21"/>
+    <mergeCell ref="F17:H21"/>
+    <mergeCell ref="I17:K21"/>
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="C22:E26"/>
     <mergeCell ref="F22:H26"/>
@@ -1364,23 +1409,6 @@
     <mergeCell ref="C27:E31"/>
     <mergeCell ref="F27:H31"/>
     <mergeCell ref="I27:K31"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:E16"/>
-    <mergeCell ref="F12:H16"/>
-    <mergeCell ref="I12:K16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:E21"/>
-    <mergeCell ref="F17:H21"/>
-    <mergeCell ref="I17:K21"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:E11"/>
-    <mergeCell ref="F7:H11"/>
-    <mergeCell ref="I7:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1415,7 +1443,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -1425,7 +1453,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1434,225 +1462,225 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>1</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9" t="s">
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="8"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="8">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="10">
-        <v>2</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9" t="s">
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="8"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="8"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="10">
+        <v>3</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9" t="s">
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="10"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="9">
-        <v>3</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
@@ -1662,9 +1690,9 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
@@ -1674,9 +1702,9 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
@@ -1686,9 +1714,9 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
@@ -1698,9 +1726,9 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
@@ -1710,9 +1738,9 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
@@ -1722,9 +1750,9 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
@@ -1734,9 +1762,9 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
@@ -1746,9 +1774,9 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
@@ -1758,9 +1786,9 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
@@ -1770,12 +1798,29 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:E11"/>
+    <mergeCell ref="F7:H11"/>
+    <mergeCell ref="I7:K11"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:E16"/>
+    <mergeCell ref="F12:H16"/>
+    <mergeCell ref="I12:K16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:E21"/>
+    <mergeCell ref="F17:H21"/>
+    <mergeCell ref="I17:K21"/>
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="C22:E26"/>
     <mergeCell ref="F22:H26"/>
@@ -1784,23 +1829,6 @@
     <mergeCell ref="C27:E31"/>
     <mergeCell ref="F27:H31"/>
     <mergeCell ref="I27:K31"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:E16"/>
-    <mergeCell ref="F12:H16"/>
-    <mergeCell ref="I12:K16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:E21"/>
-    <mergeCell ref="F17:H21"/>
-    <mergeCell ref="I17:K21"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:E11"/>
-    <mergeCell ref="F7:H11"/>
-    <mergeCell ref="I7:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1835,7 +1863,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -1845,7 +1873,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1854,225 +1882,225 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>1</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9" t="s">
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="8"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="8">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9" t="s">
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="10">
-        <v>2</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="8"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="8"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="10">
+        <v>3</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="10"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="9">
-        <v>3</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
@@ -2082,9 +2110,9 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
@@ -2094,9 +2122,9 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
@@ -2106,9 +2134,9 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
@@ -2118,9 +2146,9 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
@@ -2130,9 +2158,9 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
@@ -2142,9 +2170,9 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
@@ -2154,9 +2182,9 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
@@ -2166,9 +2194,9 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
@@ -2178,9 +2206,9 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
@@ -2190,12 +2218,29 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:E11"/>
+    <mergeCell ref="F7:H11"/>
+    <mergeCell ref="I7:K11"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:E16"/>
+    <mergeCell ref="F12:H16"/>
+    <mergeCell ref="I12:K16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:E21"/>
+    <mergeCell ref="F17:H21"/>
+    <mergeCell ref="I17:K21"/>
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="C22:E26"/>
     <mergeCell ref="F22:H26"/>
@@ -2204,23 +2249,6 @@
     <mergeCell ref="C27:E31"/>
     <mergeCell ref="F27:H31"/>
     <mergeCell ref="I27:K31"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:E16"/>
-    <mergeCell ref="F12:H16"/>
-    <mergeCell ref="I12:K16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:E21"/>
-    <mergeCell ref="F17:H21"/>
-    <mergeCell ref="I17:K21"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:E11"/>
-    <mergeCell ref="F7:H11"/>
-    <mergeCell ref="I7:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2230,7 +2258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12:E16"/>
     </sheetView>
   </sheetViews>
@@ -2255,7 +2283,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -2265,7 +2293,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -2274,211 +2302,211 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>1</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="10">
+      <c r="B12" s="8">
         <v>2</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="10"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
@@ -2488,9 +2516,9 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
@@ -2500,9 +2528,9 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
@@ -2512,9 +2540,9 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
@@ -2524,9 +2552,9 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
@@ -2536,9 +2564,9 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
@@ -2548,9 +2576,9 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
@@ -2560,9 +2588,9 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
@@ -2572,9 +2600,9 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
@@ -2584,9 +2612,9 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
@@ -2596,12 +2624,29 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:E11"/>
+    <mergeCell ref="F7:H11"/>
+    <mergeCell ref="I7:K11"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:E16"/>
+    <mergeCell ref="F12:H16"/>
+    <mergeCell ref="I12:K16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:E21"/>
+    <mergeCell ref="F17:H21"/>
+    <mergeCell ref="I17:K21"/>
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="C22:E26"/>
     <mergeCell ref="F22:H26"/>
@@ -2610,23 +2655,6 @@
     <mergeCell ref="C27:E31"/>
     <mergeCell ref="F27:H31"/>
     <mergeCell ref="I27:K31"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:E16"/>
-    <mergeCell ref="F12:H16"/>
-    <mergeCell ref="I12:K16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:E21"/>
-    <mergeCell ref="F17:H21"/>
-    <mergeCell ref="I17:K21"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:E11"/>
-    <mergeCell ref="F7:H11"/>
-    <mergeCell ref="I7:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
